--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\OneDrive\Desktop\IPC2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{369E49C5-DE02-4D12-8963-32CBD34D21C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517FDB47-437A-4C75-80D4-C4F4486F578C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="-13665" windowWidth="21600" windowHeight="11160" xr2:uid="{7EC83AC3-2E22-4263-A0F3-F1846E9EAB60}"/>
+    <workbookView xWindow="2445" yWindow="2700" windowWidth="21600" windowHeight="11175" xr2:uid="{7EC83AC3-2E22-4263-A0F3-F1846E9EAB60}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
     <t>A</t>
   </si>
@@ -85,6 +85,21 @@
   </si>
   <si>
     <t>1,1</t>
+  </si>
+  <si>
+    <t>lista sucesores</t>
+  </si>
+  <si>
+    <t>Nodo1</t>
+  </si>
+  <si>
+    <t>Nodo2</t>
+  </si>
+  <si>
+    <t>Nodo3</t>
+  </si>
+  <si>
+    <t>Nodo 4</t>
   </si>
 </sst>
 </file>
@@ -106,7 +121,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,6 +131,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -178,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -187,10 +214,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,15 +535,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A40169-9B8D-4B49-858D-03880A358135}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
@@ -533,7 +563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -559,7 +589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -579,7 +609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -592,8 +622,11 @@
       <c r="D4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -606,8 +639,20 @@
       <c r="D5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -615,22 +660,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>0</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="7">
         <v>1</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6">
+      <c r="C11" s="7"/>
+      <c r="D11" s="8">
         <v>2</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -654,12 +699,21 @@
       </c>
       <c r="I12" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\OneDrive\Desktop\IPC2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517FDB47-437A-4C75-80D4-C4F4486F578C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D95FD35-32AA-4142-BF7F-5C13D36FEB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="2700" windowWidth="21600" windowHeight="11175" xr2:uid="{7EC83AC3-2E22-4263-A0F3-F1846E9EAB60}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{7EC83AC3-2E22-4263-A0F3-F1846E9EAB60}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -57,27 +57,18 @@
     <t>Empezamos inicial y metemos en pila</t>
   </si>
   <si>
-    <t>Buscar nodos siguientes</t>
-  </si>
-  <si>
     <t>B-6</t>
   </si>
   <si>
     <t>D-1</t>
   </si>
   <si>
-    <t>Asignar nivel a b y d</t>
-  </si>
-  <si>
     <t>pasar al siguiente punto en la pila</t>
   </si>
   <si>
     <t>Ordenar de menor a mayor distancia objectos en el nivel</t>
   </si>
   <si>
-    <t>Obtener de inicio a fin del nivel y repetir pasos del 16</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -100,6 +91,15 @@
   </si>
   <si>
     <t>Nodo 4</t>
+  </si>
+  <si>
+    <t>Buscar nodos siguientes y guardarlos en lista</t>
+  </si>
+  <si>
+    <t>Regresar al paso 16</t>
+  </si>
+  <si>
+    <t>Mientras x,y no sea igual al que te mandan</t>
   </si>
 </sst>
 </file>
@@ -535,23 +535,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A40169-9B8D-4B49-858D-03880A358135}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
       </c>
       <c r="G1">
         <v>2</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>4</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -640,16 +640,16 @@
         <v>2</v>
       </c>
       <c r="K5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" t="s">
         <v>18</v>
-      </c>
-      <c r="L5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -688,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>4</v>
@@ -715,27 +715,27 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\OneDrive\Desktop\IPC2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D95FD35-32AA-4142-BF7F-5C13D36FEB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37BB6FB-DF7F-4255-B60A-16438A60DD2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{7EC83AC3-2E22-4263-A0F3-F1846E9EAB60}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>A</t>
   </si>
@@ -45,9 +45,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
@@ -57,27 +54,12 @@
     <t>Empezamos inicial y metemos en pila</t>
   </si>
   <si>
-    <t>B-6</t>
-  </si>
-  <si>
-    <t>D-1</t>
-  </si>
-  <si>
     <t>pasar al siguiente punto en la pila</t>
   </si>
   <si>
     <t>Ordenar de menor a mayor distancia objectos en el nivel</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>1,1</t>
-  </si>
-  <si>
     <t>lista sucesores</t>
   </si>
   <si>
@@ -96,10 +78,52 @@
     <t>Buscar nodos siguientes y guardarlos en lista</t>
   </si>
   <si>
-    <t>Regresar al paso 16</t>
-  </si>
-  <si>
     <t>Mientras x,y no sea igual al que te mandan</t>
+  </si>
+  <si>
+    <t>Validar que no se retorne hacia el nodo que llama los sucesores</t>
+  </si>
+  <si>
+    <t>Añadir costo del viaje, para los repotes</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>A-1</t>
+  </si>
+  <si>
+    <t>B-3</t>
+  </si>
+  <si>
+    <t>C-4</t>
+  </si>
+  <si>
+    <t>F-2</t>
+  </si>
+  <si>
+    <t>E-5</t>
+  </si>
+  <si>
+    <t>G-9</t>
+  </si>
+  <si>
+    <t>J-7</t>
+  </si>
+  <si>
+    <t>I-3</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costo </t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -215,12 +239,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,23 +557,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A40169-9B8D-4B49-858D-03880A358135}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="G1">
         <v>2</v>
@@ -565,19 +587,13 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -591,13 +607,13 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
+        <v>25</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -610,46 +626,22 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="L5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="N5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -657,91 +649,146 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="7">
+        <v>2</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="3"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>0</v>
-      </c>
-      <c r="B11" s="7">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14">
         <v>1</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8">
-        <v>2</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="C14">
+        <f>B13+C13</f>
         <v>4</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="D14">
+        <f>B13+D13</f>
         <v>6</v>
       </c>
-      <c r="F15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s">
-        <v>2</v>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <v>8</v>
+      </c>
+      <c r="H14">
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
+  <mergeCells count="1">
+    <mergeCell ref="E11:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\OneDrive\Desktop\IPC2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37BB6FB-DF7F-4255-B60A-16438A60DD2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1622A5D0-CF13-432D-82F7-71A42276EED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{7EC83AC3-2E22-4263-A0F3-F1846E9EAB60}"/>
+    <workbookView xWindow="2445" yWindow="2700" windowWidth="21600" windowHeight="11175" xr2:uid="{7EC83AC3-2E22-4263-A0F3-F1846E9EAB60}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -130,7 +130,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +140,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -229,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -239,10 +247,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,7 +570,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,16 +666,16 @@
       <c r="B11" s="5">
         <v>0</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>1</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="7">
+      <c r="D11" s="7"/>
+      <c r="E11" s="8">
         <v>2</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -677,7 +687,7 @@
       <c r="C12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -694,6 +704,7 @@
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="3"/>
+      <c r="K12" s="9"/>
       <c r="L12" s="2"/>
       <c r="M12" s="1"/>
     </row>
